--- a/PythonCode/Coordinates.xlsx
+++ b/PythonCode/Coordinates.xlsx
@@ -423,1822 +423,1822 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1750.1694</v>
+        <v>9648.696900000001</v>
       </c>
       <c r="B1" t="n">
-        <v>6407.9804</v>
+        <v>9140.181699999999</v>
       </c>
       <c r="C1" t="n">
-        <v>4338.0997</v>
+        <v>443.0572</v>
       </c>
       <c r="D1" t="n">
-        <v>7267.4992</v>
+        <v>2277.8125</v>
       </c>
       <c r="E1" t="n">
-        <v>2969.2362</v>
+        <v>2482.3798</v>
       </c>
       <c r="F1" t="n">
-        <v>7294.8047</v>
+        <v>7399.5071</v>
       </c>
       <c r="G1" t="n">
-        <v>6518.4959</v>
+        <v>1781.9824</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>283.3316</v>
+        <v>1299.0586</v>
       </c>
       <c r="B2" t="n">
-        <v>156.8525</v>
+        <v>3156.5872</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.6956</v>
+        <v>6897.6856</v>
       </c>
       <c r="D2" t="n">
-        <v>9860.402099999999</v>
+        <v>10205.5768</v>
       </c>
       <c r="E2" t="n">
-        <v>2640.9625</v>
+        <v>1788.2967</v>
       </c>
       <c r="F2" t="n">
-        <v>6598.1094</v>
+        <v>8143.0284</v>
       </c>
       <c r="G2" t="n">
-        <v>1324.5422</v>
+        <v>6166.481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3441.7863</v>
+        <v>7165.114</v>
       </c>
       <c r="B3" t="n">
-        <v>9793.302799999999</v>
+        <v>6365.9909</v>
       </c>
       <c r="C3" t="n">
-        <v>132.5511</v>
+        <v>5456.6746</v>
       </c>
       <c r="D3" t="n">
-        <v>6779.3132</v>
+        <v>10850.8839</v>
       </c>
       <c r="E3" t="n">
-        <v>10511.5198</v>
+        <v>3968.9013</v>
       </c>
       <c r="F3" t="n">
-        <v>2187.1822</v>
+        <v>9336.6438</v>
       </c>
       <c r="G3" t="n">
-        <v>2421.2243</v>
+        <v>7959.324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1355.2137</v>
+        <v>8854.527</v>
       </c>
       <c r="B4" t="n">
-        <v>7684.1913</v>
+        <v>10166.6405</v>
       </c>
       <c r="C4" t="n">
-        <v>4759.7304</v>
+        <v>295.543</v>
       </c>
       <c r="D4" t="n">
-        <v>9301.142599999999</v>
+        <v>1772.2501</v>
       </c>
       <c r="E4" t="n">
-        <v>6419.2709</v>
+        <v>7077.5779</v>
       </c>
       <c r="F4" t="n">
-        <v>10845.249</v>
+        <v>933.4405</v>
       </c>
       <c r="G4" t="n">
-        <v>2756.1458</v>
+        <v>3455.945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6053.6185</v>
+        <v>8057.9258</v>
       </c>
       <c r="B5" t="n">
-        <v>143.7026</v>
+        <v>9560.254000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>3513.9668</v>
+        <v>2722.2117</v>
       </c>
       <c r="D5" t="n">
-        <v>63.5179</v>
+        <v>9595.3567</v>
       </c>
       <c r="E5" t="n">
-        <v>1383.3535</v>
+        <v>8663.9704</v>
       </c>
       <c r="F5" t="n">
-        <v>6724.2817</v>
+        <v>10918.4471</v>
       </c>
       <c r="G5" t="n">
-        <v>5167.5028</v>
+        <v>1473.0279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3262.0392</v>
+        <v>1222.4968</v>
       </c>
       <c r="B6" t="n">
-        <v>6944.0698</v>
+        <v>139.5014</v>
       </c>
       <c r="C6" t="n">
-        <v>8892.2824</v>
+        <v>8249.7284</v>
       </c>
       <c r="D6" t="n">
-        <v>5768.2564</v>
+        <v>9132.6342</v>
       </c>
       <c r="E6" t="n">
-        <v>9602.1425</v>
+        <v>229.9172</v>
       </c>
       <c r="F6" t="n">
-        <v>1538.3422</v>
+        <v>9024.745199999999</v>
       </c>
       <c r="G6" t="n">
-        <v>5368.1192</v>
+        <v>10024.138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2711.7379</v>
+        <v>6883.489</v>
       </c>
       <c r="B7" t="n">
-        <v>4555.5874</v>
+        <v>8095.1689</v>
       </c>
       <c r="C7" t="n">
-        <v>1037.5653</v>
+        <v>4409.5886</v>
       </c>
       <c r="D7" t="n">
-        <v>8847.2652</v>
+        <v>7455.5115</v>
       </c>
       <c r="E7" t="n">
-        <v>8326.4408</v>
+        <v>5804.0413</v>
       </c>
       <c r="F7" t="n">
-        <v>6712.3196</v>
+        <v>595.5606</v>
       </c>
       <c r="G7" t="n">
-        <v>4488.3274</v>
+        <v>6171.6931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9193.3701</v>
+        <v>5125.0087</v>
       </c>
       <c r="B8" t="n">
-        <v>10496.1049</v>
+        <v>9633.623</v>
       </c>
       <c r="C8" t="n">
-        <v>6125.0513</v>
+        <v>4737.0811</v>
       </c>
       <c r="D8" t="n">
-        <v>1691.9331</v>
+        <v>4198.9077</v>
       </c>
       <c r="E8" t="n">
-        <v>10449.3016</v>
+        <v>6667.43</v>
       </c>
       <c r="F8" t="n">
-        <v>127.4186</v>
+        <v>10909.4181</v>
       </c>
       <c r="G8" t="n">
-        <v>5100.6478</v>
+        <v>2705.8984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2140.0219</v>
+        <v>1305.1734</v>
       </c>
       <c r="B9" t="n">
-        <v>919.0896</v>
+        <v>5604.3184</v>
       </c>
       <c r="C9" t="n">
-        <v>7959.4154</v>
+        <v>1164.0284</v>
       </c>
       <c r="D9" t="n">
-        <v>2895.3671</v>
+        <v>10400.6301</v>
       </c>
       <c r="E9" t="n">
-        <v>5868.6617</v>
+        <v>3677.6786</v>
       </c>
       <c r="F9" t="n">
-        <v>3097.0712</v>
+        <v>745.0747</v>
       </c>
       <c r="G9" t="n">
-        <v>2999.0106</v>
+        <v>10367.9734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4335.1244</v>
+        <v>4384.4892</v>
       </c>
       <c r="B10" t="n">
-        <v>6796.7368</v>
+        <v>771.5309</v>
       </c>
       <c r="C10" t="n">
-        <v>1950.0265</v>
+        <v>7366.0026</v>
       </c>
       <c r="D10" t="n">
-        <v>1295.9204</v>
+        <v>9700.1373</v>
       </c>
       <c r="E10" t="n">
-        <v>3816.7197</v>
+        <v>286.4052</v>
       </c>
       <c r="F10" t="n">
-        <v>7797.7596</v>
+        <v>904.6241</v>
       </c>
       <c r="G10" t="n">
-        <v>5264.9857</v>
+        <v>3914.4752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10718.9868</v>
+        <v>10404.3219</v>
       </c>
       <c r="B11" t="n">
-        <v>5570.5326</v>
+        <v>3538.9901</v>
       </c>
       <c r="C11" t="n">
-        <v>3891.1042</v>
+        <v>240.669</v>
       </c>
       <c r="D11" t="n">
-        <v>4106.2875</v>
+        <v>9900.6144</v>
       </c>
       <c r="E11" t="n">
-        <v>163.4744</v>
+        <v>6357.2842</v>
       </c>
       <c r="F11" t="n">
-        <v>210.5143</v>
+        <v>5098.0337</v>
       </c>
       <c r="G11" t="n">
-        <v>6215.1346</v>
+        <v>587.5569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4897.3266</v>
+        <v>6122.5699</v>
       </c>
       <c r="B12" t="n">
-        <v>4302.068</v>
+        <v>4909.2323</v>
       </c>
       <c r="C12" t="n">
-        <v>712.1932</v>
+        <v>6485.7842</v>
       </c>
       <c r="D12" t="n">
-        <v>2512.756</v>
+        <v>3945.2735</v>
       </c>
       <c r="E12" t="n">
-        <v>5968.5004</v>
+        <v>4126.5051</v>
       </c>
       <c r="F12" t="n">
-        <v>5313.1444</v>
+        <v>10734.0135</v>
       </c>
       <c r="G12" t="n">
-        <v>9662.9776</v>
+        <v>2387.4416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9055.2703</v>
+        <v>630.8978</v>
       </c>
       <c r="B13" t="n">
-        <v>6599.4616</v>
+        <v>9210.929400000001</v>
       </c>
       <c r="C13" t="n">
-        <v>6168.2315</v>
+        <v>2937.0003</v>
       </c>
       <c r="D13" t="n">
-        <v>6646.1451</v>
+        <v>724.5536</v>
       </c>
       <c r="E13" t="n">
-        <v>3202.1434</v>
+        <v>5276.8993</v>
       </c>
       <c r="F13" t="n">
-        <v>8843.8657</v>
+        <v>5656.2587</v>
       </c>
       <c r="G13" t="n">
-        <v>7144.3171</v>
+        <v>4023.4928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6698.045</v>
+        <v>3065.1574</v>
       </c>
       <c r="B14" t="n">
-        <v>1997.7491</v>
+        <v>7818.1476</v>
       </c>
       <c r="C14" t="n">
-        <v>4799.8762</v>
+        <v>3735.1067</v>
       </c>
       <c r="D14" t="n">
-        <v>9308.0394</v>
+        <v>8207.5959</v>
       </c>
       <c r="E14" t="n">
-        <v>1333.9018</v>
+        <v>4145.7812</v>
       </c>
       <c r="F14" t="n">
-        <v>4147.8699</v>
+        <v>8060.4916</v>
       </c>
       <c r="G14" t="n">
-        <v>3273.4047</v>
+        <v>1494.9571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>927.0311</v>
+        <v>4973.0115</v>
       </c>
       <c r="B15" t="n">
-        <v>8108.7337</v>
+        <v>4201.6026</v>
       </c>
       <c r="C15" t="n">
-        <v>4368.7775</v>
+        <v>3185.9239</v>
       </c>
       <c r="D15" t="n">
-        <v>2969.4416</v>
+        <v>2736.8092</v>
       </c>
       <c r="E15" t="n">
-        <v>6805.3913</v>
+        <v>8738.8565</v>
       </c>
       <c r="F15" t="n">
-        <v>2296.0878</v>
+        <v>10619.5953</v>
       </c>
       <c r="G15" t="n">
-        <v>6388.2146</v>
+        <v>2134.0909</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3052.6978</v>
+        <v>284.0614</v>
       </c>
       <c r="B16" t="n">
-        <v>4375.8018</v>
+        <v>10052.3545</v>
       </c>
       <c r="C16" t="n">
-        <v>4533.1548</v>
+        <v>10181.2493</v>
       </c>
       <c r="D16" t="n">
-        <v>5442.5106</v>
+        <v>3500.4587</v>
       </c>
       <c r="E16" t="n">
-        <v>8407.2032</v>
+        <v>658.5032</v>
       </c>
       <c r="F16" t="n">
-        <v>2809.4683</v>
+        <v>5660.3812</v>
       </c>
       <c r="G16" t="n">
-        <v>5645.982</v>
+        <v>6158.0177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1721.7899</v>
+        <v>3856.2149</v>
       </c>
       <c r="B17" t="n">
-        <v>1560.236</v>
+        <v>63.2768</v>
       </c>
       <c r="C17" t="n">
-        <v>6714.4764</v>
+        <v>7052.4745</v>
       </c>
       <c r="D17" t="n">
-        <v>10433.8999</v>
+        <v>5600.1083</v>
       </c>
       <c r="E17" t="n">
-        <v>5383.6932</v>
+        <v>8198.3053</v>
       </c>
       <c r="F17" t="n">
-        <v>8486.6669</v>
+        <v>5983.2897</v>
       </c>
       <c r="G17" t="n">
-        <v>5781.3884</v>
+        <v>7849.7643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6776.0112</v>
+        <v>7770.3495</v>
       </c>
       <c r="B18" t="n">
-        <v>8736.669400000001</v>
+        <v>9770.9818</v>
       </c>
       <c r="C18" t="n">
-        <v>8788.365</v>
+        <v>75.67</v>
       </c>
       <c r="D18" t="n">
-        <v>5856.9323</v>
+        <v>3941.9325</v>
       </c>
       <c r="E18" t="n">
-        <v>5634.9994</v>
+        <v>8940.6999</v>
       </c>
       <c r="F18" t="n">
-        <v>5282.9877</v>
+        <v>3138.2804</v>
       </c>
       <c r="G18" t="n">
-        <v>7483.6262</v>
+        <v>8766.133400000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10930.9809</v>
+        <v>3033.8245</v>
       </c>
       <c r="B19" t="n">
-        <v>5559.338</v>
+        <v>8487.436900000001</v>
       </c>
       <c r="C19" t="n">
-        <v>3374.5702</v>
+        <v>4020.5088</v>
       </c>
       <c r="D19" t="n">
-        <v>5373.6081</v>
+        <v>2493.363</v>
       </c>
       <c r="E19" t="n">
-        <v>4942.9741</v>
+        <v>10313.5208</v>
       </c>
       <c r="F19" t="n">
-        <v>6150.0651</v>
+        <v>3243.2497</v>
       </c>
       <c r="G19" t="n">
-        <v>2362.971</v>
+        <v>5046.6049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4600.4055</v>
+        <v>9131.0139</v>
       </c>
       <c r="B20" t="n">
-        <v>4003.3731</v>
+        <v>6583.6896</v>
       </c>
       <c r="C20" t="n">
-        <v>922.9263</v>
+        <v>9721.7821</v>
       </c>
       <c r="D20" t="n">
-        <v>261.7161</v>
+        <v>4679.1633</v>
       </c>
       <c r="E20" t="n">
-        <v>9782.6209</v>
+        <v>8492.0692</v>
       </c>
       <c r="F20" t="n">
-        <v>2543.6618</v>
+        <v>3303.759</v>
       </c>
       <c r="G20" t="n">
-        <v>6110.8808</v>
+        <v>8963.6173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4550.4025</v>
+        <v>1125.2359</v>
       </c>
       <c r="B21" t="n">
-        <v>7803.0754</v>
+        <v>3491.1633</v>
       </c>
       <c r="C21" t="n">
-        <v>10041.057</v>
+        <v>7927.4907</v>
       </c>
       <c r="D21" t="n">
-        <v>2387.096</v>
+        <v>4846.5339</v>
       </c>
       <c r="E21" t="n">
-        <v>5583.9471</v>
+        <v>1726.9025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1310.6836</v>
+        <v>4186.2176</v>
       </c>
       <c r="B22" t="n">
-        <v>5337.8474</v>
+        <v>7248.1517</v>
       </c>
       <c r="C22" t="n">
-        <v>6676.933</v>
+        <v>4651.5474</v>
       </c>
       <c r="D22" t="n">
-        <v>8157.3871</v>
+        <v>1315.0731</v>
       </c>
       <c r="E22" t="n">
-        <v>2536.1605</v>
+        <v>3731.7744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4115.5262</v>
+        <v>9581.565399999999</v>
       </c>
       <c r="B23" t="n">
-        <v>5772.6459</v>
+        <v>4123.8319</v>
       </c>
       <c r="C23" t="n">
-        <v>7352.7679</v>
+        <v>338.5416</v>
       </c>
       <c r="D23" t="n">
-        <v>4442.4976</v>
+        <v>8138.4764</v>
       </c>
       <c r="E23" t="n">
-        <v>8870.6036</v>
+        <v>6566.1568</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7523.3922</v>
+        <v>7580.5673</v>
       </c>
       <c r="B24" t="n">
-        <v>9244.3231</v>
+        <v>7418.5579</v>
       </c>
       <c r="C24" t="n">
-        <v>7261.7251</v>
+        <v>2977.6999</v>
       </c>
       <c r="D24" t="n">
-        <v>8046.0835</v>
+        <v>8605.7947</v>
       </c>
       <c r="E24" t="n">
-        <v>8870.1505</v>
+        <v>23.7365</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7951.0976</v>
+        <v>1221.1329</v>
       </c>
       <c r="B25" t="n">
-        <v>5098.5563</v>
+        <v>6575.9462</v>
       </c>
       <c r="C25" t="n">
-        <v>649.1374</v>
+        <v>3149.8629</v>
       </c>
       <c r="D25" t="n">
-        <v>7429.5233</v>
+        <v>615.5567</v>
       </c>
       <c r="E25" t="n">
-        <v>4984.8677</v>
+        <v>5356.041</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1076.8875</v>
+        <v>8062.8328</v>
       </c>
       <c r="B26" t="n">
-        <v>9195.711799999999</v>
+        <v>10277.735</v>
       </c>
       <c r="C26" t="n">
-        <v>5541.7481</v>
+        <v>10654.8412</v>
       </c>
       <c r="D26" t="n">
-        <v>3252.8704</v>
+        <v>2374.7638</v>
       </c>
       <c r="E26" t="n">
-        <v>2653.4736</v>
+        <v>4434.523</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6290.1922</v>
+        <v>4861.8867</v>
       </c>
       <c r="B27" t="n">
-        <v>3759.5929</v>
+        <v>4658.33</v>
       </c>
       <c r="C27" t="n">
-        <v>5061.1167</v>
+        <v>9900.242899999999</v>
       </c>
       <c r="D27" t="n">
-        <v>3981.2734</v>
+        <v>2857.0373</v>
       </c>
       <c r="E27" t="n">
-        <v>10791.797</v>
+        <v>1933.1873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4397.8913</v>
+        <v>153.7912</v>
       </c>
       <c r="B28" t="n">
-        <v>624.2215</v>
+        <v>9860.099200000001</v>
       </c>
       <c r="C28" t="n">
-        <v>7970.6291</v>
+        <v>2859.4294</v>
       </c>
       <c r="D28" t="n">
-        <v>5922.7694</v>
+        <v>8998.939899999999</v>
       </c>
       <c r="E28" t="n">
-        <v>7240.8439</v>
+        <v>5149.0661</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9338.844999999999</v>
+        <v>827.0082</v>
       </c>
       <c r="B29" t="n">
-        <v>9430.5095</v>
+        <v>5098.1093</v>
       </c>
       <c r="C29" t="n">
-        <v>4910.8868</v>
+        <v>8010.2513</v>
       </c>
       <c r="D29" t="n">
-        <v>6201.8604</v>
+        <v>3004.3661</v>
       </c>
       <c r="E29" t="n">
-        <v>7849.6417</v>
+        <v>1802.8145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5412.4369</v>
+        <v>3159.7505</v>
       </c>
       <c r="B30" t="n">
-        <v>7113.5587</v>
+        <v>1642.8613</v>
       </c>
       <c r="C30" t="n">
-        <v>5899.7354</v>
+        <v>3147.3075</v>
       </c>
       <c r="D30" t="n">
-        <v>320.1029</v>
+        <v>6557.4052</v>
       </c>
       <c r="E30" t="n">
-        <v>10907.6564</v>
+        <v>8452.0038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2038.8673</v>
+        <v>5648.1116</v>
       </c>
       <c r="B31" t="n">
-        <v>7961.3877</v>
+        <v>6014.8483</v>
       </c>
       <c r="C31" t="n">
-        <v>10506.0742</v>
+        <v>7622.6466</v>
       </c>
       <c r="D31" t="n">
-        <v>7159.2768</v>
+        <v>2562.0127</v>
       </c>
       <c r="E31" t="n">
-        <v>8738.624900000001</v>
+        <v>1194.4105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6688.9788</v>
+        <v>7538.5567</v>
       </c>
       <c r="B32" t="n">
-        <v>9280.719999999999</v>
+        <v>414.9724</v>
       </c>
       <c r="C32" t="n">
-        <v>6291.796</v>
+        <v>6708.2692</v>
       </c>
       <c r="D32" t="n">
-        <v>5011.2437</v>
+        <v>4691.3748</v>
       </c>
       <c r="E32" t="n">
-        <v>9382.929099999999</v>
+        <v>2133.1175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7187.1305</v>
+        <v>5369.8615</v>
       </c>
       <c r="B33" t="n">
-        <v>1364.9327</v>
+        <v>3138.6112</v>
       </c>
       <c r="C33" t="n">
-        <v>759.139</v>
+        <v>6677.6979</v>
       </c>
       <c r="D33" t="n">
-        <v>3842.9586</v>
+        <v>1026.0254</v>
       </c>
       <c r="E33" t="n">
-        <v>7310.9047</v>
+        <v>934.9722</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3138.8218</v>
+        <v>1164.8546</v>
       </c>
       <c r="B34" t="n">
-        <v>8802.371999999999</v>
+        <v>7083.0472</v>
       </c>
       <c r="C34" t="n">
-        <v>5022.0144</v>
+        <v>1298.8708</v>
       </c>
       <c r="D34" t="n">
-        <v>3843.6144</v>
+        <v>8391.7801</v>
       </c>
       <c r="E34" t="n">
-        <v>1884.7607</v>
+        <v>534.7903</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6139.3881</v>
+        <v>6632.2177</v>
       </c>
       <c r="B35" t="n">
-        <v>10709.4348</v>
+        <v>994.3693</v>
       </c>
       <c r="C35" t="n">
-        <v>10203.1273</v>
+        <v>306.5121</v>
       </c>
       <c r="D35" t="n">
-        <v>5099.4664</v>
+        <v>8493.257799999999</v>
       </c>
       <c r="E35" t="n">
-        <v>3616.7084</v>
+        <v>10119.5198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10924.2292</v>
+        <v>8874.6765</v>
       </c>
       <c r="B36" t="n">
-        <v>5720.3903</v>
+        <v>9241.6734</v>
       </c>
       <c r="C36" t="n">
-        <v>2764.895</v>
+        <v>4384.001</v>
       </c>
       <c r="D36" t="n">
-        <v>7417.1597</v>
+        <v>484.4653</v>
       </c>
       <c r="E36" t="n">
-        <v>5245.9686</v>
+        <v>3893.2028</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10515.7315</v>
+        <v>8465.0679</v>
       </c>
       <c r="B37" t="n">
-        <v>5981.1465</v>
+        <v>10793.7524</v>
       </c>
       <c r="C37" t="n">
-        <v>5505.216</v>
+        <v>2214.491</v>
       </c>
       <c r="D37" t="n">
-        <v>7688.1814</v>
+        <v>1497.8849</v>
       </c>
       <c r="E37" t="n">
-        <v>3804.8259</v>
+        <v>5802.1561</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10773.773</v>
+        <v>2786.4908</v>
       </c>
       <c r="B38" t="n">
-        <v>457.6961</v>
+        <v>772.586</v>
       </c>
       <c r="C38" t="n">
-        <v>1892.0524</v>
+        <v>5221.7836</v>
       </c>
       <c r="D38" t="n">
-        <v>7486.1002</v>
+        <v>549.3809</v>
       </c>
       <c r="E38" t="n">
-        <v>2834.4837</v>
+        <v>3436.7074</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6951.4941</v>
+        <v>6792.5723</v>
       </c>
       <c r="B39" t="n">
-        <v>4685.4718</v>
+        <v>7346.1773</v>
       </c>
       <c r="C39" t="n">
-        <v>2386.0515</v>
+        <v>4736.5343</v>
       </c>
       <c r="D39" t="n">
-        <v>2046.7294</v>
+        <v>10436.8512</v>
       </c>
       <c r="E39" t="n">
-        <v>8788.6101</v>
+        <v>636.4833</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10319.2515</v>
+        <v>2435.2052</v>
       </c>
       <c r="B40" t="n">
-        <v>1984.3047</v>
+        <v>3877.2829</v>
       </c>
       <c r="C40" t="n">
-        <v>3292.5404</v>
+        <v>5837.1949</v>
       </c>
       <c r="D40" t="n">
-        <v>2014.5481</v>
+        <v>4608.1453</v>
       </c>
       <c r="E40" t="n">
-        <v>5914.3417</v>
+        <v>3664.717</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8092.3879</v>
+        <v>5220.4302</v>
       </c>
       <c r="B41" t="n">
-        <v>1654.6077</v>
+        <v>3010.1099</v>
       </c>
       <c r="C41" t="n">
-        <v>2344.289</v>
+        <v>10339.4903</v>
       </c>
       <c r="D41" t="n">
-        <v>2085.7782</v>
+        <v>7859.5701</v>
       </c>
       <c r="E41" t="n">
-        <v>2022.8084</v>
+        <v>6802.9918</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7377.5409</v>
+        <v>8095.9951</v>
       </c>
       <c r="B42" t="n">
-        <v>9943.5034</v>
+        <v>10482.4475</v>
       </c>
       <c r="C42" t="n">
-        <v>2680.518</v>
+        <v>6539.9172</v>
       </c>
       <c r="D42" t="n">
-        <v>6003.0483</v>
+        <v>5320.6282</v>
       </c>
       <c r="E42" t="n">
-        <v>937.0154</v>
+        <v>9796.4566</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1945.149</v>
+        <v>3107.8266</v>
       </c>
       <c r="B43" t="n">
-        <v>5350.5419</v>
+        <v>3460.285</v>
       </c>
       <c r="C43" t="n">
-        <v>3514.9461</v>
+        <v>8989.8297</v>
       </c>
       <c r="D43" t="n">
-        <v>2400.6889</v>
+        <v>2771.1938</v>
       </c>
       <c r="E43" t="n">
-        <v>7904.53</v>
+        <v>10454.6892</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9169.4041</v>
+        <v>5095.8779</v>
       </c>
       <c r="B44" t="n">
-        <v>1407.2047</v>
+        <v>1891.7305</v>
       </c>
       <c r="C44" t="n">
-        <v>5431.077</v>
+        <v>8374.1185</v>
       </c>
       <c r="D44" t="n">
-        <v>1148.2564</v>
+        <v>3462.3529</v>
       </c>
       <c r="E44" t="n">
-        <v>3321.8042</v>
+        <v>6335.5502</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4058.2786</v>
+        <v>5838.7124</v>
       </c>
       <c r="B45" t="n">
-        <v>5248.2874</v>
+        <v>1424.3099</v>
       </c>
       <c r="C45" t="n">
-        <v>322.3846</v>
+        <v>9756.7804</v>
       </c>
       <c r="D45" t="n">
-        <v>9510.799999999999</v>
+        <v>357.9902</v>
       </c>
       <c r="E45" t="n">
-        <v>3562.1398</v>
+        <v>6538.019</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>460.9186</v>
+        <v>9303.369699999999</v>
       </c>
       <c r="B46" t="n">
-        <v>742.0137999999999</v>
+        <v>7333.7818</v>
       </c>
       <c r="C46" t="n">
-        <v>4201.4944</v>
+        <v>3245.8487</v>
       </c>
       <c r="D46" t="n">
-        <v>6017.2643</v>
+        <v>8007.2841</v>
       </c>
       <c r="E46" t="n">
-        <v>9810.1288</v>
+        <v>5062.9359</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1704.0832</v>
+        <v>5617.7697</v>
       </c>
       <c r="B47" t="n">
-        <v>8160.5863</v>
+        <v>5029.8799</v>
       </c>
       <c r="C47" t="n">
-        <v>637.9961</v>
+        <v>3792.9346</v>
       </c>
       <c r="D47" t="n">
-        <v>1815.2319</v>
+        <v>617.8849</v>
       </c>
       <c r="E47" t="n">
-        <v>8884.8647</v>
+        <v>3305.7591</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7803.4155</v>
+        <v>6704.4506</v>
       </c>
       <c r="B48" t="n">
-        <v>10215.1761</v>
+        <v>8935.143599999999</v>
       </c>
       <c r="C48" t="n">
-        <v>6875.32</v>
+        <v>6689.7216</v>
       </c>
       <c r="D48" t="n">
-        <v>9862.9948</v>
+        <v>2205.5489</v>
       </c>
       <c r="E48" t="n">
-        <v>4960.1155</v>
+        <v>890.0248</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3992.9251</v>
+        <v>8217.696</v>
       </c>
       <c r="B49" t="n">
-        <v>5475.6751</v>
+        <v>3094.7367</v>
       </c>
       <c r="C49" t="n">
-        <v>10292.7708</v>
+        <v>250.9125</v>
       </c>
       <c r="D49" t="n">
-        <v>7836.2644</v>
+        <v>3900.7618</v>
       </c>
       <c r="E49" t="n">
-        <v>4281.4955</v>
+        <v>10806.3618</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1409.0653</v>
+        <v>8806.170899999999</v>
       </c>
       <c r="B50" t="n">
-        <v>9827.6312</v>
+        <v>4013.9332</v>
       </c>
       <c r="C50" t="n">
-        <v>4614.7722</v>
+        <v>9493.679599999999</v>
       </c>
       <c r="D50" t="n">
-        <v>9021.222100000001</v>
+        <v>6751.7924</v>
       </c>
       <c r="E50" t="n">
-        <v>4338.4201</v>
+        <v>5486.5768</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7105.2137</v>
+        <v>10093.816</v>
       </c>
       <c r="B51" t="n">
-        <v>8061.3562</v>
+        <v>10336.8554</v>
       </c>
       <c r="C51" t="n">
-        <v>2004.8158</v>
+        <v>10475.8739</v>
       </c>
       <c r="D51" t="n">
-        <v>2409.5543</v>
+        <v>3967.4749</v>
       </c>
       <c r="E51" t="n">
-        <v>2731.6286</v>
+        <v>6843.1883</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9447.9871</v>
+        <v>9537.482</v>
       </c>
       <c r="B52" t="n">
-        <v>10718.0351</v>
+        <v>6712.0054</v>
       </c>
       <c r="C52" t="n">
-        <v>586.9739</v>
+        <v>10928.4351</v>
       </c>
       <c r="D52" t="n">
-        <v>7046.1793</v>
+        <v>1826.0358</v>
       </c>
       <c r="E52" t="n">
-        <v>274.8617</v>
+        <v>3123.7301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1113.6332</v>
+        <v>9672.3843</v>
       </c>
       <c r="B53" t="n">
-        <v>1059.8679</v>
+        <v>2387.0027</v>
       </c>
       <c r="C53" t="n">
-        <v>8275.162700000001</v>
+        <v>9408.4602</v>
       </c>
       <c r="D53" t="n">
-        <v>1864.2673</v>
+        <v>1514.2745</v>
       </c>
       <c r="E53" t="n">
-        <v>6884.3986</v>
+        <v>2136.8694</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>831.8428</v>
+        <v>1060.1529</v>
       </c>
       <c r="B54" t="n">
-        <v>7202.0893</v>
+        <v>10924.6925</v>
       </c>
       <c r="C54" t="n">
-        <v>3536.7237</v>
+        <v>221.6472</v>
       </c>
       <c r="D54" t="n">
-        <v>3298.4938</v>
+        <v>2448.2967</v>
       </c>
       <c r="E54" t="n">
-        <v>786.283</v>
+        <v>3690.2032</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2698.16</v>
+        <v>1185.3122</v>
       </c>
       <c r="B55" t="n">
-        <v>3471.2427</v>
+        <v>1786.6921</v>
       </c>
       <c r="C55" t="n">
-        <v>7716.9584</v>
+        <v>1602.5179</v>
       </c>
       <c r="D55" t="n">
-        <v>6147.4588</v>
+        <v>3381.6092</v>
       </c>
       <c r="E55" t="n">
-        <v>4300.4316</v>
+        <v>7262.0725</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6179.7578</v>
+        <v>6547.3286</v>
       </c>
       <c r="B56" t="n">
-        <v>10727.4937</v>
+        <v>6275.0676</v>
       </c>
       <c r="C56" t="n">
-        <v>8618.8647</v>
+        <v>5742.1831</v>
       </c>
       <c r="D56" t="n">
-        <v>158.572</v>
+        <v>5780.381</v>
       </c>
       <c r="E56" t="n">
-        <v>5879.4446</v>
+        <v>4053.0044</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2373.6065</v>
+        <v>5299.1659</v>
       </c>
       <c r="B57" t="n">
-        <v>8828.5275</v>
+        <v>261.5448</v>
       </c>
       <c r="C57" t="n">
-        <v>2760.779</v>
+        <v>7898.5411</v>
       </c>
       <c r="D57" t="n">
-        <v>10553.1624</v>
+        <v>9287.0128</v>
       </c>
       <c r="E57" t="n">
-        <v>8839.8977</v>
+        <v>8538.959199999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>509.4485</v>
+        <v>6076.2393</v>
       </c>
       <c r="B58" t="n">
-        <v>4370.6454</v>
+        <v>4176.3942</v>
       </c>
       <c r="C58" t="n">
-        <v>9305.6872</v>
+        <v>6122.9535</v>
       </c>
       <c r="D58" t="n">
-        <v>4495.5739</v>
+        <v>7329.4166</v>
       </c>
       <c r="E58" t="n">
-        <v>3846.765</v>
+        <v>6227.8228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9530.1798</v>
+        <v>1495.0748</v>
       </c>
       <c r="B59" t="n">
-        <v>6603.923</v>
+        <v>5203.925</v>
       </c>
       <c r="C59" t="n">
-        <v>7743.2539</v>
+        <v>4493.6058</v>
       </c>
       <c r="D59" t="n">
-        <v>1365.1328</v>
+        <v>4641.1502</v>
       </c>
       <c r="E59" t="n">
-        <v>2010.412</v>
+        <v>9578.5314</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6066.5976</v>
+        <v>5681.1727</v>
       </c>
       <c r="B60" t="n">
-        <v>3478.4552</v>
+        <v>3883.897</v>
       </c>
       <c r="C60" t="n">
-        <v>283.1128</v>
+        <v>4368.2395</v>
       </c>
       <c r="D60" t="n">
-        <v>4087.9238</v>
+        <v>5593.5379</v>
       </c>
       <c r="E60" t="n">
-        <v>187.3537</v>
+        <v>3384.2451</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6686.6802</v>
+        <v>7150.8002</v>
       </c>
       <c r="B61" t="n">
-        <v>418.1293</v>
+        <v>946.6501</v>
       </c>
       <c r="C61" t="n">
-        <v>9870.5335</v>
+        <v>7272.6195</v>
       </c>
       <c r="D61" t="n">
-        <v>4887.8631</v>
+        <v>2909.9528</v>
       </c>
       <c r="E61" t="n">
-        <v>10781.3849</v>
+        <v>6940.8604</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6314.4198</v>
+        <v>7656.0685</v>
       </c>
       <c r="B62" t="n">
-        <v>8860.2423</v>
+        <v>7221.6376</v>
       </c>
       <c r="C62" t="n">
-        <v>3925.0407</v>
+        <v>5331.2892</v>
       </c>
       <c r="D62" t="n">
-        <v>10287.9096</v>
+        <v>6923.1712</v>
       </c>
       <c r="E62" t="n">
-        <v>9234.450699999999</v>
+        <v>9745.3747</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6148.5756</v>
+        <v>1568.0733</v>
       </c>
       <c r="B63" t="n">
-        <v>10650.2698</v>
+        <v>9299.420099999999</v>
       </c>
       <c r="C63" t="n">
-        <v>3028.6045</v>
+        <v>6563.9882</v>
       </c>
       <c r="D63" t="n">
-        <v>5011.7403</v>
+        <v>1898.6093</v>
       </c>
       <c r="E63" t="n">
-        <v>5743.8436</v>
+        <v>4656.2864</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3319.0571</v>
+        <v>6894.84</v>
       </c>
       <c r="B64" t="n">
-        <v>3718.8286</v>
+        <v>1249.4767</v>
       </c>
       <c r="C64" t="n">
-        <v>4648.0687</v>
+        <v>2988.2385</v>
       </c>
       <c r="D64" t="n">
-        <v>7640.2149</v>
+        <v>1551.6195</v>
       </c>
       <c r="E64" t="n">
-        <v>2829.3298</v>
+        <v>400.2167</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5856.2333</v>
+        <v>1461.4168</v>
       </c>
       <c r="B65" t="n">
-        <v>6016.8646</v>
+        <v>551.1451</v>
       </c>
       <c r="C65" t="n">
-        <v>2760.7521</v>
+        <v>1025.4489</v>
       </c>
       <c r="D65" t="n">
-        <v>9403.411400000001</v>
+        <v>1371.1026</v>
       </c>
       <c r="E65" t="n">
-        <v>7048.3376</v>
+        <v>2437.9487</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>489.5201</v>
+        <v>2357.3515</v>
       </c>
       <c r="B66" t="n">
-        <v>2410.6586</v>
+        <v>2877.5098</v>
       </c>
       <c r="C66" t="n">
-        <v>387.5994</v>
+        <v>5430.31</v>
       </c>
       <c r="D66" t="n">
-        <v>2674.4753</v>
+        <v>7181.4349</v>
       </c>
       <c r="E66" t="n">
-        <v>9789.087299999999</v>
+        <v>9184.9755</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1946.616</v>
+        <v>3860.8656</v>
       </c>
       <c r="B67" t="n">
-        <v>9367.4542</v>
+        <v>1380.0243</v>
       </c>
       <c r="C67" t="n">
-        <v>5684.7369</v>
+        <v>5170.3808</v>
       </c>
       <c r="D67" t="n">
-        <v>2161.019</v>
+        <v>10782.2849</v>
       </c>
       <c r="E67" t="n">
-        <v>6685.8786</v>
+        <v>10971.6872</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5571.9701</v>
+        <v>10650.3255</v>
       </c>
       <c r="B68" t="n">
-        <v>4300.1771</v>
+        <v>8718.087100000001</v>
       </c>
       <c r="C68" t="n">
-        <v>10388.6897</v>
+        <v>355.9609</v>
       </c>
       <c r="D68" t="n">
-        <v>1041.797</v>
+        <v>7071.0001</v>
       </c>
       <c r="E68" t="n">
-        <v>10749.3238</v>
+        <v>1750.2144</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>239.4227</v>
+        <v>9070.607599999999</v>
       </c>
       <c r="B69" t="n">
-        <v>26.4086</v>
+        <v>5364.4312</v>
       </c>
       <c r="C69" t="n">
-        <v>8032.1842</v>
+        <v>8124.121</v>
       </c>
       <c r="D69" t="n">
-        <v>6538.956</v>
+        <v>10178.3304</v>
       </c>
       <c r="E69" t="n">
-        <v>1162.9915</v>
+        <v>4951.092</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7554.9195</v>
+        <v>2866.5042</v>
       </c>
       <c r="B70" t="n">
-        <v>6575.809</v>
+        <v>6475.2578</v>
       </c>
       <c r="C70" t="n">
-        <v>7080.1708</v>
+        <v>498.3839</v>
       </c>
       <c r="D70" t="n">
-        <v>6518.7997</v>
+        <v>437.0591</v>
       </c>
       <c r="E70" t="n">
-        <v>3054.9206</v>
+        <v>6519.1437</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9749.2554</v>
+        <v>9452.7718</v>
       </c>
       <c r="B71" t="n">
-        <v>409.9761</v>
+        <v>3423.9775</v>
       </c>
       <c r="C71" t="n">
-        <v>10725.255</v>
+        <v>5832.2341</v>
       </c>
       <c r="D71" t="n">
-        <v>9134.1795</v>
+        <v>3572.7706</v>
       </c>
       <c r="E71" t="n">
-        <v>7595.6405</v>
+        <v>5947.1713</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9441.429</v>
+        <v>8443.4146</v>
       </c>
       <c r="B72" t="n">
-        <v>1592.1035</v>
+        <v>3957.6318</v>
       </c>
       <c r="C72" t="n">
-        <v>2911.87</v>
+        <v>5208.3786</v>
       </c>
       <c r="D72" t="n">
-        <v>2813.0113</v>
+        <v>8480.1703</v>
       </c>
       <c r="E72" t="n">
-        <v>6283.6741</v>
+        <v>1979.6813</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2456.0302</v>
+        <v>10388.7707</v>
       </c>
       <c r="B73" t="n">
-        <v>4104.8897</v>
+        <v>2377.071</v>
       </c>
       <c r="C73" t="n">
-        <v>7281.7566</v>
+        <v>2145.29</v>
       </c>
       <c r="D73" t="n">
-        <v>939.845</v>
+        <v>713.8491</v>
       </c>
       <c r="E73" t="n">
-        <v>1829.1707</v>
+        <v>761.5244</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1068.1974</v>
+        <v>7505.6832</v>
       </c>
       <c r="B74" t="n">
-        <v>7656.2948</v>
+        <v>1718.5958</v>
       </c>
       <c r="C74" t="n">
-        <v>5603.1703</v>
+        <v>4544.4109</v>
       </c>
       <c r="D74" t="n">
-        <v>33.2997</v>
+        <v>2726.0606</v>
       </c>
       <c r="E74" t="n">
-        <v>6392.3867</v>
+        <v>2970.0793</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2957.9265</v>
+        <v>9701.1194</v>
       </c>
       <c r="B75" t="n">
-        <v>2892.4681</v>
+        <v>378.9451</v>
       </c>
       <c r="C75" t="n">
-        <v>5019.328</v>
+        <v>6609.3269</v>
       </c>
       <c r="D75" t="n">
-        <v>7315.8503</v>
+        <v>7913.7389</v>
       </c>
       <c r="E75" t="n">
-        <v>4396.3592</v>
+        <v>10529.9828</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1533.0057</v>
+        <v>5551.8117</v>
       </c>
       <c r="B76" t="n">
-        <v>10353.9888</v>
+        <v>7338.077</v>
       </c>
       <c r="C76" t="n">
-        <v>4270.8682</v>
+        <v>6415.9902</v>
       </c>
       <c r="D76" t="n">
-        <v>5997.6657</v>
+        <v>4897.6559</v>
       </c>
       <c r="E76" t="n">
-        <v>334.386</v>
+        <v>7406.1782</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4846.9378</v>
+        <v>6308.7296</v>
       </c>
       <c r="B77" t="n">
-        <v>4680.8046</v>
+        <v>8687.544900000001</v>
       </c>
       <c r="C77" t="n">
-        <v>8468.190399999999</v>
+        <v>8374.1451</v>
       </c>
       <c r="D77" t="n">
-        <v>2786.1173</v>
+        <v>4058.3</v>
       </c>
       <c r="E77" t="n">
-        <v>1066.3622</v>
+        <v>159.2794</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8963.1301</v>
+        <v>8408.0895</v>
       </c>
       <c r="B78" t="n">
-        <v>3516.3887</v>
+        <v>7085.2605</v>
       </c>
       <c r="C78" t="n">
-        <v>7133.7505</v>
+        <v>4591.7215</v>
       </c>
       <c r="D78" t="n">
-        <v>3130.0553</v>
+        <v>1504.5907</v>
       </c>
       <c r="E78" t="n">
-        <v>7986.7768</v>
+        <v>10372.5417</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7995.3766</v>
+        <v>1603.4482</v>
       </c>
       <c r="B79" t="n">
-        <v>503.8353</v>
+        <v>2673.9952</v>
       </c>
       <c r="C79" t="n">
-        <v>9922.3001</v>
+        <v>3566.4244</v>
       </c>
       <c r="D79" t="n">
-        <v>8027.9406</v>
+        <v>3050.4937</v>
       </c>
       <c r="E79" t="n">
-        <v>3961.7123</v>
+        <v>10622.3603</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2299.9786</v>
+        <v>7721.0678</v>
       </c>
       <c r="B80" t="n">
-        <v>310.2875</v>
+        <v>10335.1684</v>
       </c>
       <c r="C80" t="n">
-        <v>5595.2822</v>
+        <v>10482.5423</v>
       </c>
       <c r="D80" t="n">
-        <v>5835.0383</v>
+        <v>9792.958199999999</v>
       </c>
       <c r="E80" t="n">
-        <v>5823.6452</v>
+        <v>3982.8906</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1411.1046</v>
+        <v>8194.4028</v>
       </c>
       <c r="B81" t="n">
-        <v>10337.0131</v>
+        <v>8252.010200000001</v>
       </c>
       <c r="C81" t="n">
-        <v>122.636</v>
+        <v>2370.9817</v>
       </c>
       <c r="D81" t="n">
-        <v>3061.9009</v>
+        <v>9862.508900000001</v>
       </c>
       <c r="E81" t="n">
-        <v>6773.6091</v>
+        <v>5654.7622</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7417.2239</v>
+        <v>8803.656199999999</v>
       </c>
       <c r="B82" t="n">
-        <v>1648.853</v>
+        <v>4723.0672</v>
       </c>
       <c r="C82" t="n">
-        <v>4796.8633</v>
+        <v>5614.2539</v>
       </c>
       <c r="D82" t="n">
-        <v>4102.8539</v>
+        <v>982.7947</v>
       </c>
       <c r="E82" t="n">
-        <v>9932.445599999999</v>
+        <v>2435.858</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7835.6264</v>
+        <v>4561.9915</v>
       </c>
       <c r="B83" t="n">
-        <v>4706.9582</v>
+        <v>9906.5039</v>
       </c>
       <c r="C83" t="n">
-        <v>5631.1411</v>
+        <v>6866.1969</v>
       </c>
       <c r="D83" t="n">
-        <v>3449.4627</v>
+        <v>778.739</v>
       </c>
       <c r="E83" t="n">
-        <v>5923.8731</v>
+        <v>6934.7041</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10424.4777</v>
+        <v>5765.8941</v>
       </c>
       <c r="B84" t="n">
-        <v>8402.8315</v>
+        <v>4737.8072</v>
       </c>
       <c r="C84" t="n">
-        <v>4941.1012</v>
+        <v>677.0587</v>
       </c>
       <c r="D84" t="n">
-        <v>4881.0483</v>
+        <v>3556.4398</v>
       </c>
       <c r="E84" t="n">
-        <v>7193.1053</v>
+        <v>9889.0237</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>381.4614</v>
+        <v>7215.2697</v>
       </c>
       <c r="B85" t="n">
-        <v>10034.5986</v>
+        <v>9169.103800000001</v>
       </c>
       <c r="C85" t="n">
-        <v>643.1119</v>
+        <v>5221.7893</v>
       </c>
       <c r="D85" t="n">
-        <v>1453.5225</v>
+        <v>7986.2642</v>
       </c>
       <c r="E85" t="n">
-        <v>5299.6942</v>
+        <v>9114.723</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10760.2956</v>
+        <v>3121.6839</v>
       </c>
       <c r="B86" t="n">
-        <v>8202.9738</v>
+        <v>5368.5511</v>
       </c>
       <c r="C86" t="n">
-        <v>9221.3876</v>
+        <v>372.8074</v>
       </c>
       <c r="D86" t="n">
-        <v>6276.6423</v>
+        <v>5929.6466</v>
       </c>
       <c r="E86" t="n">
-        <v>6171.6198</v>
+        <v>5346.5279</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8047.1971</v>
+        <v>5211.7692</v>
       </c>
       <c r="B87" t="n">
-        <v>6100.924</v>
+        <v>430.0672</v>
       </c>
       <c r="C87" t="n">
-        <v>2479.5792</v>
+        <v>6444.6693</v>
       </c>
       <c r="D87" t="n">
-        <v>651.9327</v>
+        <v>1507.0989</v>
       </c>
       <c r="E87" t="n">
-        <v>3649.722</v>
+        <v>1287.902</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1176.9726</v>
+        <v>7030.1567</v>
       </c>
       <c r="B88" t="n">
-        <v>9800.787</v>
+        <v>8476.4737</v>
       </c>
       <c r="C88" t="n">
-        <v>2319.4196</v>
+        <v>8729.8995</v>
       </c>
       <c r="D88" t="n">
-        <v>1701.2144</v>
+        <v>7947.6599</v>
       </c>
       <c r="E88" t="n">
-        <v>358.7553</v>
+        <v>7590.3927</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5049.4062</v>
+        <v>234.7499</v>
       </c>
       <c r="B89" t="n">
-        <v>1810.9165</v>
+        <v>5634.2804</v>
       </c>
       <c r="C89" t="n">
-        <v>4732.0291</v>
+        <v>6020.4496</v>
       </c>
       <c r="D89" t="n">
-        <v>3592.7399</v>
+        <v>7011.4798</v>
       </c>
       <c r="E89" t="n">
-        <v>539.1976</v>
+        <v>5347.1181</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4010.5132</v>
+        <v>77.47069999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>262.6448</v>
+        <v>10332.7906</v>
       </c>
       <c r="C90" t="n">
-        <v>1366.9147</v>
+        <v>3103.0088</v>
       </c>
       <c r="D90" t="n">
-        <v>5337.4755</v>
+        <v>9463.261</v>
       </c>
       <c r="E90" t="n">
-        <v>5272.7904</v>
+        <v>4619.5204</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>824.574</v>
+        <v>4770.4849</v>
       </c>
       <c r="B91" t="n">
-        <v>2290.3966</v>
+        <v>10988.1252</v>
       </c>
       <c r="C91" t="n">
-        <v>7521.7347</v>
+        <v>9581.611199999999</v>
       </c>
       <c r="D91" t="n">
-        <v>3926.5823</v>
+        <v>4090.0937</v>
       </c>
       <c r="E91" t="n">
-        <v>5604.2637</v>
+        <v>2256.5272</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9612.887000000001</v>
+        <v>3380.7865</v>
       </c>
       <c r="B92" t="n">
-        <v>1788.2621</v>
+        <v>7054.9458</v>
       </c>
       <c r="C92" t="n">
-        <v>5229.1317</v>
+        <v>2681.5694</v>
       </c>
       <c r="D92" t="n">
-        <v>5289.5019</v>
+        <v>5111.2249</v>
       </c>
       <c r="E92" t="n">
-        <v>8660.0712</v>
+        <v>8941.2814</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2405.3946</v>
+        <v>3898.3925</v>
       </c>
       <c r="B93" t="n">
-        <v>1859.5332</v>
+        <v>6990.8343</v>
       </c>
       <c r="C93" t="n">
-        <v>2828.5829</v>
+        <v>1922.1498</v>
       </c>
       <c r="D93" t="n">
-        <v>5391.4573</v>
+        <v>5511.9862</v>
       </c>
       <c r="E93" t="n">
-        <v>7559.0877</v>
+        <v>889.9761999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9692.168299999999</v>
+        <v>10361.133</v>
       </c>
       <c r="B94" t="n">
-        <v>309.5835</v>
+        <v>8838.4516</v>
       </c>
       <c r="C94" t="n">
-        <v>10486.2435</v>
+        <v>4422.915</v>
       </c>
       <c r="D94" t="n">
-        <v>2544.4451</v>
+        <v>7547.4254</v>
       </c>
       <c r="E94" t="n">
-        <v>8984.090200000001</v>
+        <v>6104.5448</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8732.1173</v>
+        <v>7297.7718</v>
       </c>
       <c r="B95" t="n">
-        <v>7543.8438</v>
+        <v>10283.12</v>
       </c>
       <c r="C95" t="n">
-        <v>6257.2689</v>
+        <v>10600.9011</v>
       </c>
       <c r="D95" t="n">
-        <v>6950.1163</v>
+        <v>3810.779</v>
       </c>
       <c r="E95" t="n">
-        <v>2455.7966</v>
+        <v>9599.706</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4457.9747</v>
+        <v>3453.8519</v>
       </c>
       <c r="B96" t="n">
-        <v>5022.728</v>
+        <v>4569.2612</v>
       </c>
       <c r="C96" t="n">
-        <v>1306.5604</v>
+        <v>8108.829</v>
       </c>
       <c r="D96" t="n">
-        <v>4288.055</v>
+        <v>5966.3944</v>
       </c>
       <c r="E96" t="n">
-        <v>709.4684999999999</v>
+        <v>8850.065199999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3819.7124</v>
+        <v>3931.7212</v>
       </c>
       <c r="B97" t="n">
-        <v>2075.9679</v>
+        <v>1086.9262</v>
       </c>
       <c r="C97" t="n">
-        <v>4106.3418</v>
+        <v>2050.7823</v>
       </c>
       <c r="D97" t="n">
-        <v>3618.3164</v>
+        <v>1604.1569</v>
       </c>
       <c r="E97" t="n">
-        <v>9249.868899999999</v>
+        <v>6337.0787</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>973.6193</v>
+        <v>1723.1804</v>
       </c>
       <c r="B98" t="n">
-        <v>3345.2018</v>
+        <v>8919.963100000001</v>
       </c>
       <c r="C98" t="n">
-        <v>3960.1642</v>
+        <v>5049.1942</v>
       </c>
       <c r="D98" t="n">
-        <v>4371.5505</v>
+        <v>3770.7393</v>
       </c>
       <c r="E98" t="n">
-        <v>891.3543</v>
+        <v>4146.2271</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2596.3503</v>
+        <v>5119.4244</v>
       </c>
       <c r="B99" t="n">
-        <v>6211.7772</v>
+        <v>5704.6104</v>
       </c>
       <c r="C99" t="n">
-        <v>7295.7861</v>
+        <v>9873.7269</v>
       </c>
       <c r="D99" t="n">
-        <v>3163.3816</v>
+        <v>555.5698</v>
       </c>
       <c r="E99" t="n">
-        <v>104.8897</v>
+        <v>10189.359</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10356.1026</v>
+        <v>3018.8989</v>
       </c>
       <c r="B100" t="n">
-        <v>7289.0898</v>
+        <v>4063.858</v>
       </c>
       <c r="C100" t="n">
-        <v>10436.1666</v>
+        <v>1904.6906</v>
       </c>
       <c r="D100" t="n">
-        <v>1536.743</v>
+        <v>10752.6607</v>
       </c>
       <c r="E100" t="n">
-        <v>10004.3939</v>
+        <v>10353.4541</v>
       </c>
     </row>
   </sheetData>
